--- a/Documents/Ajit Bakery Masters.xlsx
+++ b/Documents/Ajit Bakery Masters.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.101\mktg\Interns\Niraj\03 Project Documents\Ajit Bakery\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Product Master" sheetId="1" r:id="rId1"/>
@@ -18,8 +13,10 @@
     <sheet name="Dial Master" sheetId="3" r:id="rId4"/>
     <sheet name="Transport Details" sheetId="5" r:id="rId5"/>
     <sheet name="UserMaster" sheetId="7" r:id="rId6"/>
+    <sheet name="Menus" sheetId="8" r:id="rId7"/>
+    <sheet name="UserManagement" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +42,7 @@
     <author>tc={99A30A22-6A9D-4DBB-8DF7-3929F6CED523}</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -314,11 +311,125 @@
   <si>
     <t>D-B-27</t>
   </si>
+  <si>
+    <t>fas fa-fw fa-home</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>fas fa-fw fa-tasks</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Product Master</t>
+  </si>
+  <si>
+    <t>fas fa-fw fa-tools</t>
+  </si>
+  <si>
+    <t>Operations</t>
+  </si>
+  <si>
+    <t>fas fa-fw fa-users-cog</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Transport Master</t>
+  </si>
+  <si>
+    <t>fas fa-chart-bar</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>User Master</t>
+  </si>
+  <si>
+    <t>Production Capture</t>
+  </si>
+  <si>
+    <t>Save Production</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Transfer To Dispatch</t>
+  </si>
+  <si>
+    <t>Dispatched</t>
+  </si>
+  <si>
+    <t>Outlet Master</t>
+  </si>
+  <si>
+    <t>Dial Master</t>
+  </si>
+  <si>
+    <t>Box Master</t>
+  </si>
+  <si>
+    <t>ProductMasters</t>
+  </si>
+  <si>
+    <t>DialMasters</t>
+  </si>
+  <si>
+    <t>BoxMasters</t>
+  </si>
+  <si>
+    <t>OutletMasters</t>
+  </si>
+  <si>
+    <t>UserMasters</t>
+  </si>
+  <si>
+    <t>TransportMasters</t>
+  </si>
+  <si>
+    <t>ProductionCaptures</t>
+  </si>
+  <si>
+    <t>SaveProductions</t>
+  </si>
+  <si>
+    <t>Packagings</t>
+  </si>
+  <si>
+    <t>TransferToDispatchs</t>
+  </si>
+  <si>
+    <t>Dispatcheds</t>
+  </si>
+  <si>
+    <t>UserManagments</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -480,7 +591,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -532,7 +643,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -746,7 +857,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -764,22 +875,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.09765625" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.3984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11.09765625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.125" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="41.4">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -946,17 +1057,17 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.09765625" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.09765625" customWidth="1"/>
-    <col min="6" max="6" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1050,12 +1161,12 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.59765625" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1123,18 +1234,18 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -1247,17 +1358,17 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1324,15 +1435,15 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.19921875" customWidth="1"/>
-    <col min="3" max="3" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="9" t="s">
         <v>63</v>
       </c>
@@ -1359,4 +1470,364 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="2" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Ajit Bakery Masters.xlsx
+++ b/Documents/Ajit Bakery Masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Product Master" sheetId="1" r:id="rId1"/>
@@ -540,12 +540,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Dhiraj" id="{646DCBC3-52B2-4DA5-B0C5-E6EAD1D4A601}" userId="Dhiraj" providerId="None"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -863,20 +857,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F1" dT="2025-03-06T09:05:53.93" personId="{646DCBC3-52B2-4DA5-B0C5-E6EAD1D4A601}" id="{99A30A22-6A9D-4DBB-8DF7-3929F6CED523}">
-    <text xml:space="preserve">Please add the size if found in circle then enter diamter(15cm) and if square enter (l*b) </text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1785,8 +1771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Documents/Ajit Bakery Masters.xlsx
+++ b/Documents/Ajit Bakery Masters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Product Master" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="UserMaster" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Master'!$A$1:$J$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Product Master'!$A$1:$K$73</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="151">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -524,6 +524,12 @@
   </si>
   <si>
     <t>3Kg</t>
+  </si>
+  <si>
+    <t>RAGE UOM</t>
+  </si>
+  <si>
+    <t>Gms</t>
   </si>
 </sst>
 </file>
@@ -984,7 +990,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -992,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1003,13 +1009,13 @@
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="4" width="8.125" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="45">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1022,26 +1028,29 @@
       <c r="D1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1">
+    <row r="2" spans="1:11" s="15" customFormat="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1054,23 +1063,26 @@
       <c r="D2" s="15">
         <v>1000</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
         <v>640</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>800</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1083,23 +1095,26 @@
       <c r="D3" s="3">
         <v>500</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1">
         <v>640</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>800</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1112,23 +1127,26 @@
       <c r="D4" s="3">
         <v>250</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1">
         <v>640</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>800</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1141,23 +1159,26 @@
       <c r="D5" s="3">
         <v>1000</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1">
         <v>640</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>800</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1170,23 +1191,26 @@
       <c r="D6" s="3">
         <v>500</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1">
         <v>640</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>800</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1199,23 +1223,26 @@
       <c r="D7" s="3">
         <v>250</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1">
         <v>640</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>800</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1228,23 +1255,26 @@
       <c r="D8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="G8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1">
         <v>640</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>800</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1257,23 +1287,26 @@
       <c r="D9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1">
         <v>640</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>800</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1286,23 +1319,26 @@
       <c r="D10" s="3">
         <v>250</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
         <v>640</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>800</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1315,23 +1351,26 @@
       <c r="D11" s="3">
         <v>1000</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="1">
         <v>640</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>800</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1344,23 +1383,26 @@
       <c r="D12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1">
         <v>640</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>800</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1373,23 +1415,26 @@
       <c r="D13" s="3">
         <v>250</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1">
         <v>640</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>800</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1402,23 +1447,26 @@
       <c r="D14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1">
         <v>640</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>800</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1431,23 +1479,26 @@
       <c r="D15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1">
         <v>640</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>800</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1460,23 +1511,26 @@
       <c r="D16" s="3">
         <v>250</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1">
         <v>640</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>800</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1489,23 +1543,26 @@
       <c r="D17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
         <v>720</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>900</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1518,23 +1575,26 @@
       <c r="D18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
         <v>720</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>900</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1547,23 +1607,26 @@
       <c r="D19" s="3">
         <v>250</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1">
         <v>720</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>900</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1576,23 +1639,26 @@
       <c r="D20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1">
         <v>720</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>900</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1605,23 +1671,26 @@
       <c r="D21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="G21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="1">
         <v>720</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>900</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1634,23 +1703,26 @@
       <c r="D22" s="3">
         <v>250</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="1">
         <v>720</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>900</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1663,23 +1735,26 @@
       <c r="D23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="G23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="1">
         <v>720</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>900</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1692,23 +1767,26 @@
       <c r="D24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="G24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="1">
         <v>720</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>900</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1721,23 +1799,26 @@
       <c r="D25" s="3">
         <v>250</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="1">
         <v>720</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>900</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1750,23 +1831,26 @@
       <c r="D26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="1">
         <v>720</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>900</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1779,23 +1863,26 @@
       <c r="D27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1">
         <v>720</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>900</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1808,23 +1895,26 @@
       <c r="D28" s="3">
         <v>250</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="G28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1">
         <v>720</v>
       </c>
-      <c r="H28" s="5">
+      <c r="I28" s="5">
         <v>900</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1837,23 +1927,26 @@
       <c r="D29" s="3">
         <v>1000</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1">
         <v>720</v>
       </c>
-      <c r="H29" s="5">
+      <c r="I29" s="5">
         <v>900</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1866,23 +1959,26 @@
       <c r="D30" s="3">
         <v>500</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="G30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1">
         <v>720</v>
       </c>
-      <c r="H30" s="5">
+      <c r="I30" s="5">
         <v>900</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1895,23 +1991,26 @@
       <c r="D31" s="3">
         <v>250</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="G31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1">
         <v>720</v>
       </c>
-      <c r="H31" s="5">
+      <c r="I31" s="5">
         <v>900</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1924,23 +2023,26 @@
       <c r="D32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1">
         <v>720</v>
       </c>
-      <c r="H32" s="5">
+      <c r="I32" s="5">
         <v>900</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1953,23 +2055,26 @@
       <c r="D33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="G33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="1">
         <v>720</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <v>900</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1982,23 +2087,26 @@
       <c r="D34" s="3">
         <v>250</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="G34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1">
         <v>720</v>
       </c>
-      <c r="H34" s="5">
+      <c r="I34" s="5">
         <v>900</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2011,23 +2119,26 @@
       <c r="D35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="G35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="1">
         <v>720</v>
       </c>
-      <c r="H35" s="5">
+      <c r="I35" s="5">
         <v>900</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2040,23 +2151,26 @@
       <c r="D36" s="3">
         <v>500</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="G36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="1">
         <v>720</v>
       </c>
-      <c r="H36" s="5">
+      <c r="I36" s="5">
         <v>900</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2069,23 +2183,26 @@
       <c r="D37" s="3">
         <v>250</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="G37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="1">
         <v>720</v>
       </c>
-      <c r="H37" s="5">
+      <c r="I37" s="5">
         <v>900</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2098,23 +2215,26 @@
       <c r="D38" s="3">
         <v>1000</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="G38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="1">
         <v>720</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <v>900</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2127,23 +2247,26 @@
       <c r="D39" s="3">
         <v>500</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="G39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="1">
         <v>720</v>
       </c>
-      <c r="H39" s="5">
+      <c r="I39" s="5">
         <v>900</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2156,23 +2279,26 @@
       <c r="D40" s="3">
         <v>250</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="G40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="1">
         <v>720</v>
       </c>
-      <c r="H40" s="5">
+      <c r="I40" s="5">
         <v>900</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2185,23 +2311,26 @@
       <c r="D41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="G41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="1">
         <v>720</v>
       </c>
-      <c r="H41" s="5">
+      <c r="I41" s="5">
         <v>900</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2214,23 +2343,26 @@
       <c r="D42" s="3">
         <v>500</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="G42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="1">
         <v>720</v>
       </c>
-      <c r="H42" s="5">
+      <c r="I42" s="5">
         <v>900</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2243,23 +2375,26 @@
       <c r="D43" s="3">
         <v>250</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="1">
+      <c r="G43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="1">
         <v>720</v>
       </c>
-      <c r="H43" s="5">
+      <c r="I43" s="5">
         <v>900</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2272,23 +2407,26 @@
       <c r="D44" s="3">
         <v>1000</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="G44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="1">
         <v>720</v>
       </c>
-      <c r="H44" s="5">
+      <c r="I44" s="5">
         <v>900</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2301,23 +2439,26 @@
       <c r="D45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="G45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="1">
         <v>720</v>
       </c>
-      <c r="H45" s="5">
+      <c r="I45" s="5">
         <v>900</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2330,23 +2471,26 @@
       <c r="D46" s="3">
         <v>250</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="1">
+      <c r="G46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="1">
         <v>720</v>
       </c>
-      <c r="H46" s="5">
+      <c r="I46" s="5">
         <v>900</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2359,23 +2503,26 @@
       <c r="D47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="G47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="1">
         <v>720</v>
       </c>
-      <c r="H47" s="5">
+      <c r="I47" s="5">
         <v>900</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2388,23 +2535,26 @@
       <c r="D48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="G48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="1">
         <v>720</v>
       </c>
-      <c r="H48" s="5">
+      <c r="I48" s="5">
         <v>900</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2417,23 +2567,26 @@
       <c r="D49" s="3">
         <v>250</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="G49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="1">
         <v>720</v>
       </c>
-      <c r="H49" s="5">
+      <c r="I49" s="5">
         <v>900</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2446,23 +2599,26 @@
       <c r="D50" s="3">
         <v>1000</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="G50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="1">
         <v>800</v>
       </c>
-      <c r="H50" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J50" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2475,23 +2631,26 @@
       <c r="D51" s="3">
         <v>500</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="1">
+      <c r="G51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="1">
         <v>800</v>
       </c>
-      <c r="H51" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2504,23 +2663,26 @@
       <c r="D52" s="3">
         <v>250</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="G52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" s="1">
         <v>800</v>
       </c>
-      <c r="H52" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2533,23 +2695,26 @@
       <c r="D53" s="3">
         <v>1000</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="G53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53" s="1">
         <v>800</v>
       </c>
-      <c r="H53" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2562,23 +2727,26 @@
       <c r="D54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="1">
+      <c r="G54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="1">
         <v>800</v>
       </c>
-      <c r="H54" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2591,23 +2759,26 @@
       <c r="D55" s="3">
         <v>250</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" s="1">
+      <c r="G55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="1">
         <v>800</v>
       </c>
-      <c r="H55" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2620,23 +2791,26 @@
       <c r="D56" s="3">
         <v>1000</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="1">
+      <c r="G56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56" s="1">
         <v>800</v>
       </c>
-      <c r="H56" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2649,23 +2823,26 @@
       <c r="D57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" s="1">
+      <c r="G57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="1">
         <v>800</v>
       </c>
-      <c r="H57" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2678,23 +2855,26 @@
       <c r="D58" s="3">
         <v>250</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" s="1">
+      <c r="G58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="1">
         <v>800</v>
       </c>
-      <c r="H58" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2707,23 +2887,26 @@
       <c r="D59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="G59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="1">
         <v>800</v>
       </c>
-      <c r="H59" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2736,23 +2919,26 @@
       <c r="D60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="G60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" s="1">
         <v>800</v>
       </c>
-      <c r="H60" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2765,23 +2951,26 @@
       <c r="D61" s="3">
         <v>250</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" s="1">
+      <c r="G61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="1">
         <v>800</v>
       </c>
-      <c r="H61" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2794,23 +2983,26 @@
       <c r="D62" s="3">
         <v>1000</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="1">
+      <c r="G62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="1">
         <v>800</v>
       </c>
-      <c r="H62" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2823,23 +3015,26 @@
       <c r="D63" s="3">
         <v>500</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" s="1">
+      <c r="G63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="1">
         <v>800</v>
       </c>
-      <c r="H63" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2852,23 +3047,26 @@
       <c r="D64" s="3">
         <v>250</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" s="1">
+      <c r="G64" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="1">
         <v>800</v>
       </c>
-      <c r="H64" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2881,23 +3079,26 @@
       <c r="D65" s="3">
         <v>1000</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="1">
+      <c r="G65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="1">
         <v>800</v>
       </c>
-      <c r="H65" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2910,23 +3111,26 @@
       <c r="D66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" s="1">
+      <c r="G66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="1">
         <v>800</v>
       </c>
-      <c r="H66" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2939,23 +3143,26 @@
       <c r="D67" s="3">
         <v>250</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="1">
+      <c r="G67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="1">
         <v>800</v>
       </c>
-      <c r="H67" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2968,23 +3175,26 @@
       <c r="D68" s="3">
         <v>1000</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="1">
+      <c r="G68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="1">
         <v>800</v>
       </c>
-      <c r="H68" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2997,23 +3207,26 @@
       <c r="D69" s="3">
         <v>500</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="1">
+      <c r="G69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="1">
         <v>800</v>
       </c>
-      <c r="H69" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3026,23 +3239,26 @@
       <c r="D70" s="3">
         <v>250</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F70" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" s="1">
+      <c r="G70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="1">
         <v>800</v>
       </c>
-      <c r="H70" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3055,23 +3271,26 @@
       <c r="D71" s="3">
         <v>1000</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="1">
+      <c r="G71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="1">
         <v>800</v>
       </c>
-      <c r="H71" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3084,23 +3303,26 @@
       <c r="D72" s="3">
         <v>500</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" s="1">
+      <c r="G72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72" s="1">
         <v>800</v>
       </c>
-      <c r="H72" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3113,24 +3335,27 @@
       <c r="D73" s="3">
         <v>250</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" s="1">
+      <c r="G73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="1">
         <v>800</v>
       </c>
-      <c r="H73" s="5">
-        <v>1000</v>
-      </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J73"/>
+  <autoFilter ref="A1:K73"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3311,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
